--- a/biology/Médecine/Henry_Drysdale_Dakin/Henry_Drysdale_Dakin.xlsx
+++ b/biology/Médecine/Henry_Drysdale_Dakin/Henry_Drysdale_Dakin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Drysdale Dakin, né à Londres le 12 mars 1880, mort en février 1952, est un chimiste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un marchand de métaux, il fait ses études à l'université de Leeds (alors Victoria University), puis se perfectionne à Londres à l'Institut Lister de médecine préventive et à l'Institut Jenner.
 Il collabore ensuite avec le chimiste Albrecht Kossel, futur prix Nobel de physiologie ou médecine 1910. Ils découvrent ensemble l'arginase et Dakin propose une des premières hypothèses d'action des enzymes. Il obtient son doctorat en 1909.
@@ -548,7 +562,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Docteur honoris causa des universités de Yale, Leeds et de Heidelberg.
 Membre de l'Institute of Chemistry et de la Royal Society.
